--- a/tables_figs/heatmap_tables_figs/HEATMAP_Tables.xlsx
+++ b/tables_figs/heatmap_tables_figs/HEATMAP_Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="table.heatmap.ibm_median" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="388">
   <si>
     <t>ES-Fstable-L</t>
   </si>
@@ -1216,6 +1216,9 @@
   </si>
   <si>
     <t>Appendix Table 5A.3</t>
+  </si>
+  <si>
+    <t>Table 5.4</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1615,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1827,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3849,7 +3852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
